--- a/Tarkvarasüsteemide_Testimine/TextPad7/TextPad_Test_Report_and_Bug_report_template.xlsx
+++ b/Tarkvarasüsteemide_Testimine/TextPad7/TextPad_Test_Report_and_Bug_report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jazztime\Desktop\TARge24\Tarkvarasüsteemide_Testimine\TextPad7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E75061-C346-41BC-9A47-84FD83DDABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A9AD61-F8DA-41F1-8149-273C41359B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="11" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Bug 2" sheetId="2" r:id="rId3"/>
     <sheet name="Bug 3" sheetId="13" r:id="rId4"/>
     <sheet name="Bug 4" sheetId="14" r:id="rId5"/>
-    <sheet name="Bug 5" sheetId="5" r:id="rId6"/>
+    <sheet name="Bug 5" sheetId="15" r:id="rId6"/>
     <sheet name="Bug 6" sheetId="6" r:id="rId7"/>
-    <sheet name="Bug 7" sheetId="7" r:id="rId8"/>
-    <sheet name="Bug 8" sheetId="8" r:id="rId9"/>
-    <sheet name="Bug 9" sheetId="9" r:id="rId10"/>
-    <sheet name="Bug 10" sheetId="10" r:id="rId11"/>
+    <sheet name="Bug 7" sheetId="16" r:id="rId8"/>
+    <sheet name="Bug 8" sheetId="17" r:id="rId9"/>
+    <sheet name="Bug 9" sheetId="18" r:id="rId10"/>
+    <sheet name="Bug 9 (2)" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -39,7 +39,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -61,8 +61,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="4">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -72,12 +79,15 @@
     <bk>
       <rc t="1" v="2"/>
     </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
   <si>
     <t>Product:</t>
   </si>
@@ -220,6 +230,79 @@
   </si>
   <si>
     <t>Truncation 'Browse…' in 'Manage files' dialog</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Launching Installation Failure</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Download TextPad from the company website
+2. Go to a folder where TaxPad.exe was downloaded
+3. Click on TextPad.exe to start installation
+Expected result:
+There are no installation issues starting TextPad.exe file
+Actual result:
+The TextPad.exe does not respond or do nothing</t>
+  </si>
+  <si>
+    <t>Turncation "Working folder" in 'Copy' dialog</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…'
+3. In opened 'Manage Files' dialog, click 'Browse…' button
+4. Select any file/document and click 'Open' button
+5. In opened 'Manage Files' dialog, click 'Copy…' button
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…'
+3. In opened 'Manage Files' dialog, click 'Browse…' button
+4. Select any file/document and click 'Open' button
+5. In opened 'Manage Files' dialog, click 'Rename…' button
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Entry box in 'Delete' dialog is misaligned too low</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…'
+3. In opened 'Manage Files' dialog, click 'Browse…' button
+4. Select any file/document and click 'Open' button
+5. In opened 'Manage Files' dialog, click 'Delete…' button
+Expected result:
+Entry box in 'Delete' dialog is not misaligned too low
+Actual result:
+Entry box in 'Delete' dialog is misaligned too low</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…'
+3. In opened 'Manage Files' dialog, click 'Browse…' button
+4. Select any file/document and click 'Open' button
+5. In opened 'Manage Files' dialog, click 'Rename…' button
+Expected result:
+The modal box has one name
+Actual result:
+The modal box has more than one name</t>
+  </si>
+  <si>
+    <t>More than one name in 'Rename' modal box</t>
   </si>
 </sst>
 </file>
@@ -649,7 +732,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -731,6 +814,270 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4442460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1729740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8016A7-D2EC-42FF-1F27-000500BA49F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1912620" y="3604260"/>
+          <a:ext cx="3962400" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4564380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2042160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C0E2D9-7A12-672D-F898-B6E97B4984F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2034540" y="4549140"/>
+          <a:ext cx="3962400" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4465320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1920240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Pilt 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DD0CDB-AD46-53BB-5270-0860F3D6C1F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1935480" y="4427220"/>
+          <a:ext cx="3962400" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4465320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1920240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B533FFB3-D4E2-461A-AA16-749D8BF6BC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1935480" y="4427220"/>
+          <a:ext cx="3962400" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -772,7 +1119,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -785,6 +1132,10 @@
     <v>2</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -802,13 +1153,14 @@
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -846,7 +1198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -918,7 +1270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1322,17 +1674,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E242C01-8C84-4096-AB63-97245EAAA8B0}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.6640625" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1346,43 +1698,55 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1390,17 +1754,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87232E20-BF9F-4E5D-B571-DC57B7E87F32}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.5546875" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1414,46 +1778,59 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1461,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1639,7 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD57CD6-426E-445E-B41D-7F8A17C243AC}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1721,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB56DEDE-E8B7-4AAF-B85A-CD8BD9E51557}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1767,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -1775,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1800,17 +2177,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D448DD4C-5E12-4085-944F-1E0597CC677B}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.5546875" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1824,43 +2201,57 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="241.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="32" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1872,7 +2263,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,37 +2283,49 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="240.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
@@ -1932,21 +2335,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0D1955-F006-46A5-9DD4-29AD409C43E8}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.44140625" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1960,61 +2364,74 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B15431D-6300-4508-81AA-F4CFECB7D9BE}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.6640625" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2028,56 +2445,78 @@
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBDF2EF6028720478E3F27B9B31ABD09" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af4c30ee4a8bd4ac003a3d536b29f91a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="615ccdff-0541-46ac-a88f-a8d1251c2b60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c50b0a04c06fbcee891037f18b70482d" ns2:_="">
     <xsd:import namespace="615ccdff-0541-46ac-a88f-a8d1251c2b60"/>
@@ -2217,16 +2656,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53E4B81-85CB-4814-992F-9FCD036E17F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20789A9-57E9-4886-B95B-F2A34AEE83F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -2242,7 +2680,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37B6576-FA83-4FDB-AFBB-5436182600AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2258,12 +2696,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53E4B81-85CB-4814-992F-9FCD036E17F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>